--- a/documents/qubot.xlsx
+++ b/documents/qubot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\qubot\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B212A5-0C27-4F0F-B416-7C23556C448D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAECAB1-A8AB-4614-B48C-1D51C4BC0717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CE18A53-1715-48B4-9F88-63301624466D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1CE18A53-1715-48B4-9F88-63301624466D}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -2121,7 +2121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675C11D7-4693-4B02-AE4F-46D95235FE00}">
   <dimension ref="A1:N1048478"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
@@ -6150,8 +6150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6193B492-9D45-40B6-95ED-20BDDCDDAF32}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6174,7 +6174,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>30000101</v>
+        <v>10000101</v>
       </c>
       <c r="B3" t="s">
         <v>383</v>
@@ -6183,6 +6183,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/documents/qubot.xlsx
+++ b/documents/qubot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\qubot\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAECAB1-A8AB-4614-B48C-1D51C4BC0717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC96B494-82C9-4EC8-8690-0D71858E2A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1CE18A53-1715-48B4-9F88-63301624466D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CE18A53-1715-48B4-9F88-63301624466D}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="393">
   <si>
     <t>schema</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1495,18 +1495,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1개월상대모멘텀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3개월상대모멘텀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12개월상대모멘텀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>universe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1579,6 +1567,41 @@
   </si>
   <si>
     <t>운전자본회전율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPS증가율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EPS-(전분기)EPS)/(전분기)EPS</t>
+  </si>
+  <si>
+    <t>6MRM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1개월모멘텀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3개월모멘텀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12개월모멘텀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backtest_book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backtest_portfolio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backtest_result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2119,14 +2142,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675C11D7-4693-4B02-AE4F-46D95235FE00}">
-  <dimension ref="A1:N1048478"/>
+  <dimension ref="A1:N1048480"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B188" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="M174" sqref="M174"/>
+      <selection pane="bottomRight" activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3086,7 +3109,7 @@
         <v>75</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="93" spans="3:8" x14ac:dyDescent="0.3">
@@ -3273,24 +3296,24 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D106" t="s">
         <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D107" t="s">
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -3298,7 +3321,7 @@
         <v>300</v>
       </c>
       <c r="F108" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -3306,7 +3329,7 @@
         <v>53</v>
       </c>
       <c r="F109" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -3670,7 +3693,7 @@
     </row>
     <row r="135" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D135" t="s">
         <v>38</v>
@@ -3684,7 +3707,7 @@
     </row>
     <row r="136" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D136" t="s">
         <v>38</v>
@@ -3989,7 +4012,7 @@
     </row>
     <row r="157" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C157" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D157" t="s">
         <v>314</v>
@@ -4049,7 +4072,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
         <v>107</v>
       </c>
@@ -4063,7 +4086,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
         <v>108</v>
       </c>
@@ -4077,7 +4100,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
         <v>109</v>
       </c>
@@ -4091,9 +4114,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D164" t="s">
         <v>314</v>
@@ -4108,7 +4131,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
         <v>112</v>
       </c>
@@ -4122,7 +4145,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
         <v>113</v>
       </c>
@@ -4140,7 +4163,7 @@
       </c>
       <c r="L166" s="9"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C167" t="s">
         <v>114</v>
       </c>
@@ -4160,7 +4183,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
         <v>115</v>
       </c>
@@ -4180,7 +4203,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C169" t="s">
         <v>116</v>
       </c>
@@ -4200,7 +4223,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
         <v>117</v>
       </c>
@@ -4220,7 +4243,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
         <v>119</v>
       </c>
@@ -4240,7 +4263,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C172" t="s">
         <v>120</v>
       </c>
@@ -4260,7 +4283,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C173" t="s">
         <v>121</v>
       </c>
@@ -4280,7 +4303,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
         <v>122</v>
       </c>
@@ -4300,15 +4323,15 @@
         <v>261</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C175" t="s">
-        <v>84</v>
+        <v>384</v>
       </c>
       <c r="D175" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>317</v>
+        <v>385</v>
       </c>
       <c r="J175" t="s">
         <v>323</v>
@@ -4320,306 +4343,351 @@
         <v>262</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+    <row r="176" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
+        <v>84</v>
+      </c>
+      <c r="D176" t="s">
+        <v>315</v>
+      </c>
+      <c r="G176" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J176" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>357</v>
       </c>
-      <c r="F176" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B177" t="s">
+      <c r="F177" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
         <v>53</v>
       </c>
-      <c r="F177" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C178" t="s">
-        <v>68</v>
-      </c>
-      <c r="D178" t="s">
-        <v>14</v>
-      </c>
-      <c r="E178" t="s">
-        <v>19</v>
+      <c r="F178" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C179" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D179" t="s">
-        <v>314</v>
-      </c>
-      <c r="G179" t="s">
-        <v>226</v>
+        <v>14</v>
+      </c>
+      <c r="E179" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C180" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D180" t="s">
         <v>314</v>
       </c>
       <c r="G180" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C181" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D181" t="s">
         <v>314</v>
       </c>
       <c r="G181" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C182" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D182" t="s">
         <v>314</v>
       </c>
       <c r="G182" t="s">
-        <v>359</v>
+        <v>230</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C183" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="D183" t="s">
         <v>314</v>
       </c>
       <c r="G183" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C184" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D184" t="s">
         <v>314</v>
       </c>
       <c r="G184" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C185" t="s">
+        <v>125</v>
+      </c>
+      <c r="D185" t="s">
+        <v>314</v>
+      </c>
+      <c r="G185" t="s">
         <v>232</v>
       </c>
-      <c r="J184" t="s">
+      <c r="J185" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>358</v>
       </c>
-      <c r="F185" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B186" t="s">
+      <c r="F186" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
         <v>53</v>
       </c>
-      <c r="F186" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C187" t="s">
-        <v>68</v>
-      </c>
-      <c r="D187" t="s">
-        <v>14</v>
-      </c>
-      <c r="E187" t="s">
-        <v>19</v>
+      <c r="F187" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C188" t="s">
-        <v>362</v>
+        <v>68</v>
       </c>
       <c r="D188" t="s">
-        <v>314</v>
-      </c>
-      <c r="G188" t="s">
-        <v>365</v>
+        <v>14</v>
+      </c>
+      <c r="E188" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C189" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D189" t="s">
         <v>314</v>
       </c>
       <c r="G189" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C190" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D190" t="s">
         <v>314</v>
       </c>
       <c r="G190" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>368</v>
-      </c>
-      <c r="F191" t="s">
-        <v>373</v>
+      <c r="C191" t="s">
+        <v>386</v>
+      </c>
+      <c r="D191" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B192" t="s">
-        <v>369</v>
-      </c>
-      <c r="F192" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="193" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C193" t="s">
+      <c r="C192" t="s">
+        <v>364</v>
+      </c>
+      <c r="D192" t="s">
+        <v>314</v>
+      </c>
+      <c r="G192" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>365</v>
+      </c>
+      <c r="F193" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>366</v>
+      </c>
+      <c r="F194" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
         <v>16</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D195" t="s">
         <v>20</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E195" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C194" t="s">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
         <v>17</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D196" t="s">
         <v>21</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E196" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C195" t="s">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C197" t="s">
         <v>84</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D197" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="196" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C196" t="s">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C198" t="s">
         <v>100</v>
-      </c>
-      <c r="D196" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="197" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C197" t="s">
-        <v>101</v>
-      </c>
-      <c r="D197" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="198" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C198" t="s">
-        <v>276</v>
       </c>
       <c r="D198" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="199" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C199" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D199" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="200" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C200" t="s">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="D200" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="201" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C201" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D201" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="202" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C202" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D202" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="203" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C203" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="D203" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="204" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C204" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="D204" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="205" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C205" t="s">
-        <v>362</v>
+        <v>124</v>
       </c>
       <c r="D205" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="206" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C206" t="s">
-        <v>363</v>
+        <v>125</v>
       </c>
       <c r="D206" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="207" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C207" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D207" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="1048478" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F1048478" t="s">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C208" t="s">
+        <v>363</v>
+      </c>
+      <c r="D208" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C209" t="s">
+        <v>386</v>
+      </c>
+      <c r="D209" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C210" t="s">
+        <v>364</v>
+      </c>
+      <c r="D210" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="1048480" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1048480" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4691,16 +4759,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -6150,7 +6218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6193B492-9D45-40B6-95ED-20BDDCDDAF32}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -6161,7 +6229,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6169,7 +6237,7 @@
         <v>90000101</v>
       </c>
       <c r="B2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6177,7 +6245,7 @@
         <v>10000101</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/documents/qubot.xlsx
+++ b/documents/qubot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\qubot\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC96B494-82C9-4EC8-8690-0D71858E2A74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59726AB8-06CF-4B05-8234-ABBFFCFD93DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CE18A53-1715-48B4-9F88-63301624466D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="422">
   <si>
     <t>schema</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1602,6 +1602,122 @@
   </si>
   <si>
     <t>backtest_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{strategy}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backtest.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daily_return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAGR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volatility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharpe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>final</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slippage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6개월모멘텀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21거래일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63거래일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126거래일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>252거래일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2142,14 +2258,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675C11D7-4693-4B02-AE4F-46D95235FE00}">
-  <dimension ref="A1:N1048480"/>
+  <dimension ref="A1:N1048494"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B188" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B225" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="A218" sqref="A218"/>
+      <selection pane="bottomRight" activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2159,7 +2275,7 @@
     <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="32.75" customWidth="1"/>
     <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.25" customWidth="1"/>
@@ -4490,6 +4606,9 @@
       <c r="G189" t="s">
         <v>387</v>
       </c>
+      <c r="H189" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C190" t="s">
@@ -4501,6 +4620,9 @@
       <c r="G190" t="s">
         <v>388</v>
       </c>
+      <c r="H190" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C191" t="s">
@@ -4509,6 +4631,12 @@
       <c r="D191" t="s">
         <v>314</v>
       </c>
+      <c r="G191" t="s">
+        <v>416</v>
+      </c>
+      <c r="H191" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C192" t="s">
@@ -4520,6 +4648,9 @@
       <c r="G192" t="s">
         <v>389</v>
       </c>
+      <c r="H192" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
@@ -4655,7 +4786,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C209" t="s">
         <v>386</v>
       </c>
@@ -4663,7 +4794,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C210" t="s">
         <v>364</v>
       </c>
@@ -4671,23 +4802,264 @@
         <v>314</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+      <c r="F211" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
+        <v>393</v>
+      </c>
+      <c r="F212" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
+        <v>410</v>
+      </c>
+      <c r="D214" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C215" t="s">
+        <v>17</v>
+      </c>
+      <c r="D215" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C216" t="s">
+        <v>411</v>
+      </c>
+      <c r="D216" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C217" t="s">
+        <v>412</v>
+      </c>
+      <c r="D217" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C218" t="s">
+        <v>396</v>
+      </c>
+      <c r="D218" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C219" t="s">
+        <v>413</v>
+      </c>
+      <c r="D219" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C220" t="s">
+        <v>414</v>
+      </c>
+      <c r="D220" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C221" t="s">
+        <v>415</v>
+      </c>
+      <c r="D221" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+      <c r="F222" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B223" t="s">
+        <v>393</v>
+      </c>
+      <c r="F223" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C225" t="s">
+        <v>395</v>
+      </c>
+      <c r="D225" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C226" t="s">
+        <v>396</v>
+      </c>
+      <c r="D226" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C227" t="s">
+        <v>397</v>
+      </c>
+      <c r="D227" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C228" t="s">
+        <v>398</v>
+      </c>
+      <c r="D228" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C229" t="s">
+        <v>399</v>
+      </c>
+      <c r="D229" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="1048480" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F1048480" t="s">
+      <c r="F230" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B231" t="s">
+        <v>392</v>
+      </c>
+      <c r="F231" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C232" t="s">
+        <v>400</v>
+      </c>
+      <c r="D232" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C233" t="s">
+        <v>402</v>
+      </c>
+      <c r="D233" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C234" t="s">
+        <v>403</v>
+      </c>
+      <c r="D234" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C235" t="s">
+        <v>401</v>
+      </c>
+      <c r="D235" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C236" t="s">
+        <v>408</v>
+      </c>
+      <c r="D236" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C237" t="s">
+        <v>409</v>
+      </c>
+      <c r="D237" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C238" t="s">
+        <v>404</v>
+      </c>
+      <c r="D238" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C239" t="s">
+        <v>405</v>
+      </c>
+      <c r="D239" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C240" t="s">
+        <v>406</v>
+      </c>
+      <c r="D240" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C241" t="s">
+        <v>407</v>
+      </c>
+      <c r="D241" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C242" t="s">
+        <v>421</v>
+      </c>
+      <c r="D242" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1048494" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1048494" t="s">
         <v>75</v>
       </c>
     </row>

--- a/documents/qubot.xlsx
+++ b/documents/qubot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\qubot\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59726AB8-06CF-4B05-8234-ABBFFCFD93DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F041AB-EB4B-4AD2-892D-22DA48039927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CE18A53-1715-48B4-9F88-63301624466D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="421">
   <si>
     <t>schema</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1669,10 +1669,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>trading</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1717,7 +1713,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Remark</t>
+    <t>ROI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2261,11 +2257,11 @@
   <dimension ref="A1:N1048494"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B225" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B210" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="D233" sqref="D233"/>
+      <selection pane="bottomRight" activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4607,7 +4603,7 @@
         <v>387</v>
       </c>
       <c r="H189" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -4621,7 +4617,7 @@
         <v>388</v>
       </c>
       <c r="H190" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -4632,10 +4628,10 @@
         <v>314</v>
       </c>
       <c r="G191" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H191" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -4649,7 +4645,7 @@
         <v>389</v>
       </c>
       <c r="H192" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -4828,7 +4824,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C214" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D214" t="s">
         <v>20</v>
@@ -4852,7 +4848,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C217" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D217" t="s">
         <v>38</v>
@@ -4868,7 +4864,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C219" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D219" t="s">
         <v>38</v>
@@ -4876,7 +4872,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C220" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D220" t="s">
         <v>38</v>
@@ -4884,7 +4880,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C221" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D221" t="s">
         <v>38</v>
@@ -5012,7 +5008,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C237" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="D237" t="s">
         <v>314</v>
@@ -5048,14 +5044,6 @@
       </c>
       <c r="D241" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C242" t="s">
-        <v>421</v>
-      </c>
-      <c r="D242" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="1048494" spans="6:6" x14ac:dyDescent="0.3">

--- a/documents/qubot.xlsx
+++ b/documents/qubot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\qubot\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F041AB-EB4B-4AD2-892D-22DA48039927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187CD569-0F86-4F1E-BA23-DE2ED57728CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CE18A53-1715-48B4-9F88-63301624466D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{1CE18A53-1715-48B4-9F88-63301624466D}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="431">
   <si>
     <t>schema</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1653,10 +1653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Volatility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MDD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1714,6 +1710,50 @@
   </si>
   <si>
     <t>ROI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백테스터 제대로 되는지 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거시경제지표 스크랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무제표 스크랩 : 2017년 이후 재무제표만 있는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백테스터 그래프 메서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크래퍼+애널라이저 통합 모듈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프린트문 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO종목 스크랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동실행 배치파일 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2254,14 +2294,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675C11D7-4693-4B02-AE4F-46D95235FE00}">
-  <dimension ref="A1:N1048494"/>
+  <dimension ref="A1:N1048495"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B210" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B225" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="E220" sqref="E220"/>
+      <selection pane="bottomRight" activeCell="D248" sqref="D248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4603,7 +4643,7 @@
         <v>387</v>
       </c>
       <c r="H189" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -4617,7 +4657,7 @@
         <v>388</v>
       </c>
       <c r="H190" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -4628,10 +4668,10 @@
         <v>314</v>
       </c>
       <c r="G191" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H191" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -4645,7 +4685,7 @@
         <v>389</v>
       </c>
       <c r="H192" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -4782,7 +4822,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C209" t="s">
         <v>386</v>
       </c>
@@ -4790,7 +4830,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C210" t="s">
         <v>364</v>
       </c>
@@ -4798,7 +4838,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>390</v>
       </c>
@@ -4806,7 +4846,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>393</v>
       </c>
@@ -4814,7 +4854,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
         <v>68</v>
       </c>
@@ -4822,71 +4862,86 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C214" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D214" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I214">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C215" t="s">
         <v>17</v>
       </c>
       <c r="D215" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I215">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C216" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D216" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I216">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C217" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D217" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I217">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C218" t="s">
         <v>396</v>
       </c>
       <c r="D218" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I218">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C219" t="s">
+        <v>411</v>
+      </c>
+      <c r="D219" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C220" t="s">
         <v>412</v>
       </c>
-      <c r="D219" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C220" t="s">
+      <c r="D220" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C221" t="s">
         <v>413</v>
       </c>
-      <c r="D220" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C221" t="s">
-        <v>414</v>
-      </c>
       <c r="D221" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>391</v>
       </c>
@@ -4894,7 +4949,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
         <v>393</v>
       </c>
@@ -4902,7 +4957,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C224" t="s">
         <v>68</v>
       </c>
@@ -5000,7 +5055,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C236" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D236" t="s">
         <v>38</v>
@@ -5008,7 +5063,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C237" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D237" t="s">
         <v>314</v>
@@ -5024,7 +5079,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C239" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="D239" t="s">
         <v>314</v>
@@ -5032,7 +5087,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C240" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="D240" t="s">
         <v>314</v>
@@ -5040,14 +5095,22 @@
     </row>
     <row r="241" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C241" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D241" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="1048494" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F1048494" t="s">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C242" t="s">
+        <v>406</v>
+      </c>
+      <c r="D242" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="1048495" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1048495" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6617,12 +6680,60 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3861ABFC-BA94-48AD-84A3-83E70F8FBA72}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/qubot.xlsx
+++ b/documents/qubot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\qubot\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187CD569-0F86-4F1E-BA23-DE2ED57728CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8F352B-AB81-4961-A929-CE2328705703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{1CE18A53-1715-48B4-9F88-63301624466D}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{1CE18A53-1715-48B4-9F88-63301624466D}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="433">
   <si>
     <t>schema</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1741,10 +1741,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스크래퍼+애널라이저 통합 모듈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프린트문 제거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1753,7 +1749,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자동실행 배치파일 작성</t>
+    <t>수익종목비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트할 전략 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlite3 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pyinstaller로 단일 exe파일화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6680,10 +6688,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3861ABFC-BA94-48AD-84A3-83E70F8FBA72}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6733,8 +6741,19 @@
         <v>430</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/qubot.xlsx
+++ b/documents/qubot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\qubot\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8F352B-AB81-4961-A929-CE2328705703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7198EBB3-BE57-482C-94B3-D6F386CDD1B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{1CE18A53-1715-48B4-9F88-63301624466D}"/>
+    <workbookView xWindow="4665" yWindow="-13185" windowWidth="15555" windowHeight="11385" activeTab="4" xr2:uid="{1CE18A53-1715-48B4-9F88-63301624466D}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="fs" sheetId="3" r:id="rId3"/>
     <sheet name="err" sheetId="5" r:id="rId4"/>
     <sheet name="issue" sheetId="6" r:id="rId5"/>
+    <sheet name="syl" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="490">
   <si>
     <t>schema</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1717,14 +1718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>백테스터 제대로 되는지 검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메타분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>거시경제지표 스크랩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1737,14 +1730,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>백테스터 그래프 메서드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프린트문 제거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IPO종목 스크랩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1753,15 +1738,259 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트할 전략 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sqlite3 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pyinstaller로 단일 exe파일화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDD로직 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>균등분할 / 켈리베팅 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상해종합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유가WTI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원달러환율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국제금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다우산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나스닥종합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S&amp;P500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니케이225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가스오일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난방유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천연가스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>니켈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알루미늄합금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥수수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대두박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대두유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오렌지주스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코코아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜금리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD금리(91일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국고채(3년)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사채(3년)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oil_gold_exchangerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interest_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw_materials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trader모듈 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝 구현 어떻게?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macro_economics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 퀀트 투자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식투자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀀트투자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 필요한 IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 스크랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무제표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 백테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밸류에이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모멘텀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니버스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주가지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술적 분석으로 자동트레이딩 적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2302,14 +2531,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675C11D7-4693-4B02-AE4F-46D95235FE00}">
-  <dimension ref="A1:N1048495"/>
+  <dimension ref="A1:N1048496"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B225" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="D248" sqref="D248"/>
+      <selection pane="bottomRight" activeCell="I217" sqref="I217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5087,7 +5316,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C239" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D239" t="s">
         <v>314</v>
@@ -5101,7 +5330,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C241" t="s">
         <v>405</v>
       </c>
@@ -5109,7 +5338,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C242" t="s">
         <v>406</v>
       </c>
@@ -5117,8 +5346,329 @@
         <v>314</v>
       </c>
     </row>
-    <row r="1048495" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F1048495" t="s">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B244" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C246" t="s">
+        <v>435</v>
+      </c>
+      <c r="D246" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C247" t="s">
+        <v>436</v>
+      </c>
+      <c r="D247" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C248" t="s">
+        <v>437</v>
+      </c>
+      <c r="D248" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C249" t="s">
+        <v>438</v>
+      </c>
+      <c r="D249" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C250" t="s">
+        <v>430</v>
+      </c>
+      <c r="D250" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B251" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C253" t="s">
+        <v>431</v>
+      </c>
+      <c r="D253" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C254" t="s">
+        <v>432</v>
+      </c>
+      <c r="D254" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C255" t="s">
+        <v>433</v>
+      </c>
+      <c r="D255" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C256" t="s">
+        <v>434</v>
+      </c>
+      <c r="D256" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C258" t="s">
+        <v>68</v>
+      </c>
+      <c r="D258" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C259" t="s">
+        <v>439</v>
+      </c>
+      <c r="D259" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C260" t="s">
+        <v>440</v>
+      </c>
+      <c r="D260" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C261" t="s">
+        <v>441</v>
+      </c>
+      <c r="D261" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C262" t="s">
+        <v>442</v>
+      </c>
+      <c r="D262" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C263" t="s">
+        <v>443</v>
+      </c>
+      <c r="D263" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C264" t="s">
+        <v>444</v>
+      </c>
+      <c r="D264" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C265" t="s">
+        <v>445</v>
+      </c>
+      <c r="D265" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C266" t="s">
+        <v>446</v>
+      </c>
+      <c r="D266" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C267" t="s">
+        <v>447</v>
+      </c>
+      <c r="D267" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C268" t="s">
+        <v>448</v>
+      </c>
+      <c r="D268" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C269" t="s">
+        <v>449</v>
+      </c>
+      <c r="D269" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C270" t="s">
+        <v>450</v>
+      </c>
+      <c r="D270" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C271" t="s">
+        <v>451</v>
+      </c>
+      <c r="D271" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C272" t="s">
+        <v>452</v>
+      </c>
+      <c r="D272" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C273" t="s">
+        <v>453</v>
+      </c>
+      <c r="D273" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C274" t="s">
+        <v>454</v>
+      </c>
+      <c r="D274" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C275" t="s">
+        <v>455</v>
+      </c>
+      <c r="D275" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C276" t="s">
+        <v>456</v>
+      </c>
+      <c r="D276" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C277" t="s">
+        <v>457</v>
+      </c>
+      <c r="D277" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C278" t="s">
+        <v>458</v>
+      </c>
+      <c r="D278" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B279" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C281" t="s">
+        <v>460</v>
+      </c>
+      <c r="D281" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C282" t="s">
+        <v>459</v>
+      </c>
+      <c r="D282" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C283" t="s">
+        <v>461</v>
+      </c>
+      <c r="D283" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C284" t="s">
+        <v>462</v>
+      </c>
+      <c r="D284" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="1048496" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1048496" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6650,7 +7200,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6691,34 +7241,39 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
@@ -6738,17 +7293,17 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -6756,4 +7311,118 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7308ED9A-FA13-4EED-B9BB-A99944370393}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>487</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/qubot.xlsx
+++ b/documents/qubot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\qubot\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7198EBB3-BE57-482C-94B3-D6F386CDD1B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0110F5B9-357E-491B-A386-500082CB1FE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="-13185" windowWidth="15555" windowHeight="11385" activeTab="4" xr2:uid="{1CE18A53-1715-48B4-9F88-63301624466D}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{1CE18A53-1715-48B4-9F88-63301624466D}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="err" sheetId="5" r:id="rId4"/>
     <sheet name="issue" sheetId="6" r:id="rId5"/>
     <sheet name="syl" sheetId="7" r:id="rId6"/>
+    <sheet name="flow" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="543">
   <si>
     <t>schema</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1991,6 +1992,218 @@
   </si>
   <si>
     <t>기술적 분석으로 자동트레이딩 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qubot실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrap_all 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyze_all 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backtester 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrap_stock_info 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrap_market_index 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrap_daily_price 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrap_financial_statements 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스피 스크랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스닥 스크랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목 정보 스크랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코넥스 종목 정보 스크랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. KIND에서 코스피와 코스닥 종목 정보를 가져와 합침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 1과 2를 비교해 신규상장종목 체크 / 상장폐지종목 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.  네이버에서 종목 세부 정보 스크랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. DB 스크랩된 종목 정보 가져옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB와 KIND 정보 비교하여 신규상장/상장폐지 종목 체크후 네이버에서 스크랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불성실공시법인 정보 스크랩 : KIND에서 가져와서 DB REPLACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리종목 스크랩 : KIND에서 가져와서 DB REPLACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrap_macro_economics 실행 : 현재 빈 깡통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 스크랩함수 (scrap_daily_price_naver) 사용안함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 스크랩함수 (scrap_price_naver_chart) 사용중 : 각 종목별로 20일치씩 매번 스크랩함 -&gt; 수정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융주의 경우 스크랩 비대상 종목 처리(90000101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크랩 안 된 경우 2016년부터 스크랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크랩에러가 났던 종목 (10000101)은 처음부터 다시 스크랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번달에 스크랩을 이미 했다면 스크랩 건너뜀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크랩한지 한 달이 지난 종목은 1년치만 다시 스크랩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyze_fundamental 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyze_valuation 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyze_momentum 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>universe_builder 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backtest_book 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backtest_portfolio 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backtest_evaluation 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meta_analysis 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크랩이 안된 종목은 그냥 다음 종목으로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크랩 비대상 종목(90000101)은 펀더멘탈 계산 비대상 종목(90000101) 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크랩 에러 종목(10000101)은 펀더멘털 계산하되 펀더멘털 계산 에러 종목 처리(10000101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀더멘털 계산 안 된 종목은 계산 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번 달에 펀더멘털 계산을 했다면 그냥 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀더멘털 계산한지 한달이 지난 종목은 다시 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일주가 스크랩이 안된 종목은 그냥 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모멘텀 계산이 안된 종목은 계산 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모멘텀 계산 완료일이 오늘이 아니면 계산 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일주가 / 재무제표 스크랩 미완료 / 펀더멘털 계산 미완료 종목은 그냥 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀더멘털 계산 비대상종목(90000101)은 밸류에이션 계산 비대상 종목(90000101) 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 밸류에이션 계산이 안됐고, 펀더멘털 계산 에러가 났던 종목(10000101)은 밸류에이션 계산을 하되 밸류에이션 계산 에러 종목(10000101)로 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 밸류에이션 계산이 안됐고, 펀더멘털 계산이 에러나지 않은 종목은 정상적으로 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 이미 계산을 했다면 그냥 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 계산일이 오늘이 아니면 마지막 계산일 이후로 다시 계산함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산이 아직 안됐으면 20170101부터 오늘자까지 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 계산일이 오늘 이전이라면 최종 계산일부터 오늘까지만 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 계산일이 오늘이라면 계산하지 않고 끝냄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7240,7 +7453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3861ABFC-BA94-48AD-84A3-83E70F8FBA72}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -7318,7 +7531,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F13"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7425,4 +7638,289 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710E4AF7-0EE2-49EB-A955-560D5B76F9DE}">
+  <dimension ref="A1:E54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="80.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>524</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>